--- a/etf_dfs/MCHI.xlsx
+++ b/etf_dfs/MCHI.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>MCHI</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,4550 +426,4603 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MCHI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>51.68999862670898</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>51.95000076293945</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>51.59000015258789</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>51.90000152587891</v>
       </c>
-      <c r="F2">
-        <v>42.29685974121094</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>42.2968635559082</v>
+      </c>
+      <c r="G2" t="n">
         <v>14200</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>52.52000045776367</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>52.77999877929688</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>52.11999893188477</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>52.77999877929688</v>
       </c>
-      <c r="F3">
-        <v>43.01403045654297</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>43.01403427124023</v>
+      </c>
+      <c r="G3" t="n">
         <v>1800</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.01695563058854965</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>52.38000106811523</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>52.41999816894531</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>52.15999984741211</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>52.41999816894531</v>
       </c>
-      <c r="F4">
-        <v>42.72063827514648</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>42.72063064575195</v>
+      </c>
+      <c r="G4" t="n">
         <v>1400</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>-0.006820777163276004</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.01681245915357232</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>49.95999908447266</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>49.97000122070312</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>49.95999908447266</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>49.97000122070312</v>
       </c>
-      <c r="F5">
-        <v>41.52756881713867</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>41.52757263183594</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>-0.04673782971807916</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.03218577723176314</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>49.61999893188477</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>49.61999893188477</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>49.61999893188477</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>49.61999893188477</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>41.23669815063477</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>200</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>-0.007004248154257597</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.02640772060550272</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>44.65000152587891</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>44.79999923706055</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>44.40000152587891</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>44.61999893188477</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>37.08144378662109</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>8900</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-0.1007658224028519</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.0462399617806572</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>36.95000076293945</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>36.95000076293945</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>35.9900016784668</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>36.11000061035156</v>
       </c>
-      <c r="F8">
-        <v>30.00920104980469</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>30.00922012329102</v>
+      </c>
+      <c r="G8" t="n">
         <v>5200</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>-0.1907216164331211</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.0779503016987783</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>42.43000030517578</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>42.52000045776367</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>41.84000015258789</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>41.84000015258789</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>34.77112579345703</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>5000</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.1586817902349666</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.1078810829068998</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>41.72999954223633</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>41.83000183105469</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>41.70000076293945</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>41.70000076293945</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>34.65477752685547</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>20900</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-0.003346065705971957</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.1001769390116807</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>39.9900016784668</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>40.2400016784668</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>39.9900016784668</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>40.22999954223633</v>
       </c>
-      <c r="F11">
-        <v>33.51449966430664</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>33.51450729370117</v>
+      </c>
+      <c r="G11" t="n">
         <v>6200</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>-0.03525182718964304</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.09380375732037026</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>44.43000030517578</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>44.43000030517578</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>43.93999862670898</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>44.18000030517578</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>36.80513763427734</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>505500</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.09818545383756372</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.09649718049227303</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>47.02999877929688</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>47.22000122070312</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>46.72000122070312</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>46.72000122070312</v>
       </c>
-      <c r="F13">
-        <v>38.92115020751953</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>38.9211540222168</v>
+      </c>
+      <c r="G13" t="n">
         <v>10400</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>0.05749209818882184</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.09389114451312822</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>43.72000122070312</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>43.72000122070312</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>43.40999984741211</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>43.52000045776367</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>36.25531387329102</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>1387500</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-0.06849316522537741</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.09135604226646366</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-0.1614643703610821</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-0.1614643703610821</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>45.13000106811523</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>45.13000106811523</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>44.79999923706055</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>44.84999847412109</v>
       </c>
-      <c r="F15">
-        <v>37.36330413818359</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>37.36328887939453</v>
+      </c>
+      <c r="G15" t="n">
         <v>18000</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.03056061586323255</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.08821046496422645</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.1502463146756712</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.1502463146756712</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>40.5</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>40.72999954223633</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>40.40000152587891</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>40.59999847412109</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>33.8227424621582</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>15900</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-0.09476031537553553</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.08790135790684618</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-0.2254864576059186</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>-0.2254864576059186</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>40.52000045776367</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>40.90999984741211</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>40.5</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>40.90999984741211</v>
       </c>
-      <c r="F17">
-        <v>34.76358032226562</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>34.76359176635742</v>
+      </c>
+      <c r="G17" t="n">
         <v>50300</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.007635502092164126</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.08488308492978981</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.1813088083243304</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.1813088083243304</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>40.88999938964844</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>41.02999877929688</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>40.75</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>40.75</v>
       </c>
-      <c r="F18">
-        <v>34.62762069702148</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>34.62762451171875</v>
+      </c>
+      <c r="G18" t="n">
         <v>48100</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>-0.00391102048420644</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.0820316180294821</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.1787585474167572</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.1787585474167572</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>39.81000137329102</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>39.97000122070312</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>39.63999938964844</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>39.75</v>
       </c>
-      <c r="F19">
-        <v>33.77786636352539</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>33.77787017822266</v>
+      </c>
+      <c r="G19" t="n">
         <v>71800</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>-0.02453987730061347</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.07948714535375082</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-0.109143860342066</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>-0.109143860342066</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>42.15000152587891</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>42.15999984741211</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>41.90000152587891</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>42</v>
       </c>
-      <c r="F20">
-        <v>35.68981170654297</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="n">
+        <v>35.68982315063477</v>
+      </c>
+      <c r="G20" t="n">
         <v>130000</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>0.05660377358490565</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.07881622632283211</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>0.1631126915007575</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>0.1631126915007575</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>44.68999862670898</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>44.83000183105469</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>44.27000045776367</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>44.36000061035156</v>
       </c>
-      <c r="F21">
-        <v>37.69525146484375</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>37.69524002075195</v>
+      </c>
+      <c r="G21" t="n">
         <v>170000</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>0.05619049072265625</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.07802800057199596</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>0.06022945622785336</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>0.06022945622785336</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>45.36999893188477</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>45.59000015258789</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>45.2400016784668</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>45.27999877929688</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>38.47702789306641</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>424600</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>0.02073936330674053</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.07616916320235916</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>0.08585126980475066</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>0.08585126980475066</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>47.84000015258789</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>48.54999923706055</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>47.84000015258789</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>48.5</v>
       </c>
-      <c r="F23">
-        <v>41.29433441162109</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>41.29433059692383</v>
+      </c>
+      <c r="G23" t="n">
         <v>227900</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>0.07111310308107588</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.07602678784230536</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>0.2055679978092277</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0.2055679978092277</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>49.72999954223633</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>49.7400016784668</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>49.4900016784668</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>49.58000183105469</v>
       </c>
-      <c r="F24">
-        <v>42.21388244628906</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>42.2138786315918</v>
+      </c>
+      <c r="G24" t="n">
         <v>405300</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>0.02226807899081829</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.07435164578963921</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>0.1222272858437776</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>0.1222272858437776</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>47.47999954223633</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>47.7599983215332</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>47.34999847412109</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>47.36000061035156</v>
       </c>
-      <c r="F25">
-        <v>40.32370758056641</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>40.32370376586914</v>
+      </c>
+      <c r="G25" t="n">
         <v>501300</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.04477614237022109</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.07325684334803706</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>0.01369861671503614</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>0.01369861671503614</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>45.22999954223633</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>45.40999984741211</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>45.06000137329102</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>45.31000137329102</v>
       </c>
-      <c r="F26">
-        <v>38.57827377319336</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>38.57826995849609</v>
+      </c>
+      <c r="G26" t="n">
         <v>1040300</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>-0.04328545630576863</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.07215651885108973</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>0.04113053531018562</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>0.04113053531018562</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>45.79000091552734</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>46.22000122070312</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>45.63999938964844</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>46.18999862670898</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>39.3275260925293</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>144400</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>0.01942169999440124</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.07078051468738486</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>0.02987737342646923</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>0.02987737342646923</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>45.54999923706055</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>45.54999923706055</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>44.68000030517578</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>44.7599983215332</v>
       </c>
-      <c r="F28">
-        <v>38.1099853515625</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>38.10999298095703</v>
+      </c>
+      <c r="G28" t="n">
         <v>444100</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>-0.0309590895798143</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.06957970498435044</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>0.1024630542797615</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>0.1024630542797615</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>40.75</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>41.11999893188477</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>40.52999877929688</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>40.86000061035156</v>
       </c>
-      <c r="F29">
-        <v>35.59061431884766</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>35.59061813354492</v>
+      </c>
+      <c r="G29" t="n">
         <v>289100</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>-0.08713131942423291</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.07011048771205623</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>-0.001222176417673859</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>-0.001222176417673859</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>42.7599983215332</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>43.06999969482422</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>42.41999816894531</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>42.56000137329102</v>
       </c>
-      <c r="F30">
-        <v>37.07138061523438</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>37.07138442993164</v>
+      </c>
+      <c r="G30" t="n">
         <v>376900</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>0.04160550018466647</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.06939533171751426</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>0.0444172116145034</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>0.0444172116145034</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>43.68999862670898</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>43.79999923706055</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>43.27999877929688</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>43.70999908447266</v>
       </c>
-      <c r="F31">
-        <v>38.07307052612305</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>38.07306671142578</v>
+      </c>
+      <c r="G31" t="n">
         <v>2251700</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>0.02702062204122324</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.06839865483031513</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>0.09962261847729947</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>0.09962261847729947</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>45.97000122070312</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>46.09999847412109</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>45.75</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>46.04999923706055</v>
       </c>
-      <c r="F32">
-        <v>40.11130523681641</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>40.11130142211914</v>
+      </c>
+      <c r="G32" t="n">
         <v>358200</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>0.0535346648730346</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.0680133554797541</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.09642855326334643</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>0.09642855326334643</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>47.27999877929688</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>47.34000015258789</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>46.86999893188477</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>46.95000076293945</v>
       </c>
-      <c r="F33">
-        <v>40.89522933959961</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>40.89523696899414</v>
+      </c>
+      <c r="G33" t="n">
         <v>368600</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.01954400740043005</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.06697878730649648</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.05838593590964702</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.05838593590964702</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>49.88999938964844</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>49.97999954223633</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>49.65000152587891</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>49.88000106811523</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>43.4473762512207</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>409500</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>0.06240682124735164</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.06683618289378426</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.1015901592939441</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.1015901592939441</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>47.81999969482422</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>48.22000122070312</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>47.72000122070312</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>48.22000122070312</v>
       </c>
-      <c r="F35">
-        <v>42.19596481323242</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>42.19596099853516</v>
+      </c>
+      <c r="G35" t="n">
         <v>91200</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>-0.03327986792031623</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.06605341183822909</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>-0.005773170707152109</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>-0.005773170707152109</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>43.68000030517578</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>44.09000015258789</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>43.34000015258789</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>43.90999984741211</v>
       </c>
-      <c r="F36">
-        <v>38.42439651489258</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>38.42440032958984</v>
+      </c>
+      <c r="G36" t="n">
         <v>537200</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>-0.08938202538743467</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.06682457378405536</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>-0.114360665071439</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>-0.114360665071439</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>45.79999923706055</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>45.79999923706055</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>45.06999969482422</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>45.27000045776367</v>
       </c>
-      <c r="F37">
-        <v>39.61450576782227</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>39.614501953125</v>
+      </c>
+      <c r="G37" t="n">
         <v>362300</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>0.03097245764239553</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.0660798491405124</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>-0.04413007022071436</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>-0.04413007022071436</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>45.0099983215332</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>45.2400016784668</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>44.93000030517578</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>44.9900016784668</v>
       </c>
-      <c r="F38">
-        <v>39.36948394775391</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>39.36947631835938</v>
+      </c>
+      <c r="G38" t="n">
         <v>228300</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>-0.006185084525415663</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.06513325994077165</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>-0.007062451669066827</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>-0.007062451669066827</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>43.84000015258789</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>43.88000106811523</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>43.63000106811523</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>43.84000015258789</v>
       </c>
-      <c r="F39">
-        <v>38.36314010620117</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>38.36314392089844</v>
+      </c>
+      <c r="G39" t="n">
         <v>207600</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>-0.02556126879251308</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.06434050352350758</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>-0.05087678164082532</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>-0.05087678164082532</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>46.04000091552734</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>46.15999984741211</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>45.79000091552734</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>45.86000061035156</v>
       </c>
-      <c r="F40">
-        <v>40.13079071044922</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>40.13078689575195</v>
+      </c>
+      <c r="G40" t="n">
         <v>381200</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>0.04607665261708327</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.06395215311738907</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>0.02457556590857091</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>0.02457556590857091</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>46.52000045776367</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>46.54999923706055</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>46.31000137329102</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>46.36999893188477</v>
       </c>
-      <c r="F41">
-        <v>41.22613906860352</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>41.22614288330078</v>
+      </c>
+      <c r="G41" t="n">
         <v>92100</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>0.01112076569440967</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.06313594006245801</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>0.1348506666477456</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>0.1348506666477456</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>50.04000091552734</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>50.06000137329102</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>49.45000076293945</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>49.4900016784668</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>44.00003433227539</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>1160800</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>0.06728494324887002</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.06324666037268185</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>0.1628289492848742</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>0.1628289492848742</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>50.33000183105469</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>50.4900016784668</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>50.06000137329102</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>50.13000106811523</v>
       </c>
-      <c r="F43">
-        <v>44.56904220581055</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>44.56904602050781</v>
+      </c>
+      <c r="G43" t="n">
         <v>763600</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>0.01293189266402672</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.0624797484013992</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>0.1468771932764279</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>0.1468771932764279</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>47.16999816894531</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>47.47000122070312</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>47.08000183105469</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>47.38000106811523</v>
       </c>
-      <c r="F44">
-        <v>42.12410354614258</v>
-      </c>
-      <c r="G44">
+      <c r="F44" t="n">
+        <v>42.12409973144531</v>
+      </c>
+      <c r="G44" t="n">
         <v>796300</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>-0.05485736966698596</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.06231437219826404</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>0.02888169062083978</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>0.02888169062083978</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>49.45000076293945</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>49.45999908447266</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>49.09999847412109</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>49.20999908447266</v>
       </c>
-      <c r="F45">
-        <v>43.7510871887207</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>43.75109100341797</v>
+      </c>
+      <c r="G45" t="n">
         <v>397700</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>0.03862384920014139</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.06185243737996602</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>0.04813627869665904</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>0.04813627869665904</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>50.09999847412109</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>50.09999847412109</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>49.70000076293945</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>49.77999877929688</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>44.25786209106445</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>163600</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>0.01158300559700831</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.06115109047620181</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>-0.00200485739127787</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>-0.00200485739127787</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>50.29000091552734</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>50.43000030517578</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>50.13000106811523</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>50.22999954223633</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>45.08263397216797</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>144700</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>0.009039790557942018</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.06046429430366356</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>0.04168391270529903</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>0.04168391270529903</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>50.9900016784668</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>51.06999969482422</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>50.31000137329102</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>50.40000152587891</v>
       </c>
-      <c r="F48">
-        <v>45.23521041870117</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>45.23520660400391</v>
+      </c>
+      <c r="G48" t="n">
         <v>1428500</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>0.003384471136608891</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.05978963722058626</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>0.1478023616720485</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.1478023616720485</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>53.22000122070312</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>53.25</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>52.93999862670898</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>53.06000137329102</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>47.62263107299805</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>488700</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>0.05277777315237331</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.05961362442884691</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>0.1720786577591338</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.1720786577591338</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>54.06999969482422</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>54.56000137329102</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>54.02000045776367</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>54.5</v>
       </c>
-      <c r="F50">
-        <v>48.91505813598633</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>48.9150505065918</v>
+      </c>
+      <c r="G50" t="n">
         <v>1688400</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>0.02713906124084353</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.05908529545839546</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>0.211380261541197</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.211380261541197</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>63.06000137329102</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>63.18999862670898</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>62.65000152587891</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>62.68000030517578</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>56.25680160522461</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>810900</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>0.1500917487188216</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.06213898590310864</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>0.4297445275322556</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>0.4297445275322556</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>60.61000061035156</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>60.70000076293945</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>59.79999923706055</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>59.84999847412109</v>
       </c>
-      <c r="F52">
-        <v>53.7168083190918</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>53.71681594848633</v>
+      </c>
+      <c r="G52" t="n">
         <v>771100</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>-0.04514999708481182</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.06192196361743037</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>0.3050588241948626</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.3050588241948626</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>56.4900016784668</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>56.4900016784668</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>55.70000076293945</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>56.04000091552734</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>50.81100082397461</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>779700</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>-0.06365910870058211</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.0620438089776787</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>0.2085400518953502</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>0.2085400518953502</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>50.29000091552734</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>50.4900016784668</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>49.81000137329102</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>50.04000091552734</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>45.37085342407227</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>595100</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>-0.1070663794071699</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.06331436335554048</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>0.01111334044063805</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>0.01111334044063805</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>44.41999816894531</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>44.61000061035156</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>43.95000076293945</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>44.09999847412109</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>39.98509979248047</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>325900</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>-0.1187050825884992</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.06483298959722972</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>-0.1202873023242258</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>-0.1202873023242258</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>43.70999908447266</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>43.90999984741211</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>43.34000015258789</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>43.81000137329102</v>
       </c>
-      <c r="F56">
-        <v>39.72216033935547</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>39.7221565246582</v>
+      </c>
+      <c r="G56" t="n">
         <v>431300</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>-0.006575898205535169</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.06422297736306515</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>-0.07534824006634899</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>-0.07534824006634899</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>47.58000183105469</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>47.58000183105469</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>47.29000091552734</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>47.29999923706055</v>
       </c>
-      <c r="F57">
-        <v>42.88651657104492</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>42.88651275634766</v>
+      </c>
+      <c r="G57" t="n">
         <v>396100</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>0.07966212632664349</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.0645501469271741</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>-0.03881324696091648</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>-0.03881324696091648</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>46.22000122070312</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>46.77000045776367</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>46.20000076293945</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>46.75</v>
       </c>
-      <c r="F58">
-        <v>42.3878288269043</v>
-      </c>
-      <c r="G58">
+      <c r="F58" t="n">
+        <v>42.38783645629883</v>
+      </c>
+      <c r="G58" t="n">
         <v>1917500</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>-0.01162789103450157</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.06398081051443842</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>-0.0608677953716027</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>-0.0608677953716027</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>44.65000152587891</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>44.90999984741211</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>44.52000045776367</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>44.61999893188477</v>
       </c>
-      <c r="F59">
-        <v>41.02743148803711</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>41.02743530273438</v>
+      </c>
+      <c r="G59" t="n">
         <v>400400</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>-0.04556152017358794</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.06369577909275412</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>-0.1116862564498801</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>-0.1116862564498801</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>38.84000015258789</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>39.29999923706055</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>38.7400016784668</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>39.27999877929688</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>36.11738204956055</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>972700</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>-0.1196772810492384</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.06504118081157709</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>-0.2206349684507894</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>-0.2206349684507894</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>38.43000030517578</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>38.79999923706055</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>38.33000183105469</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>38.34999847412109</v>
       </c>
-      <c r="F61">
-        <v>35.26226043701172</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>35.26226425170898</v>
+      </c>
+      <c r="G61" t="n">
         <v>1134900</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>-0.02367617958445434</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.06453598618451102</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>-0.2772333682330914</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>-0.2772333682330914</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>42.56000137329102</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>42.79999923706055</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>42.40999984741211</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>42.5099983215332</v>
       </c>
-      <c r="F62">
-        <v>39.08731842041016</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>39.08732223510742</v>
+      </c>
+      <c r="G62" t="n">
         <v>1044200</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>0.108474576608375</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.06558602393519568</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>-0.2200000307975559</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>-0.2200000307975559</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>42.38000106811523</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>42.54999923706055</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>41.97999954223633</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>42.27000045776367</v>
       </c>
-      <c r="F63">
-        <v>38.86665344238281</v>
-      </c>
-      <c r="G63">
+      <c r="F63" t="n">
+        <v>38.86664581298828</v>
+      </c>
+      <c r="G63" t="n">
         <v>1040500</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>-0.005645680386864749</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.0650396990734648</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>-0.3256222040210609</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>-0.3256222040210609</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>41.93000030517578</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>42.41999816894531</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>41.79000091552734</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>42.25</v>
       </c>
-      <c r="F64">
-        <v>38.8482551574707</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>38.84824752807617</v>
+      </c>
+      <c r="G64" t="n">
         <v>3497400</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.000473159629691855</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.06450445843728617</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>-0.2940684865970592</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>-0.2940684865970592</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>42.02000045776367</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>42.63999938964844</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>41.95999908447266</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>42.38999938964844</v>
       </c>
-      <c r="F65">
-        <v>39.26171875</v>
-      </c>
-      <c r="G65">
+      <c r="F65" t="n">
+        <v>39.26172256469727</v>
+      </c>
+      <c r="G65" t="n">
         <v>918600</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>0.003313595021264826</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.06398471099567946</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>-0.2435760403796998</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>-0.2435760403796998</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>43.84999847412109</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>44.13999938964844</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>43.66999816894531</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>44.02000045776367</v>
       </c>
-      <c r="F66">
-        <v>40.77142333984375</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>40.77142715454102</v>
+      </c>
+      <c r="G66" t="n">
         <v>757300</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>0.03845249095505476</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.06366771404147326</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>-0.1203037639412927</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>-0.1203037639412927</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>46.93000030517578</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>46.93000030517578</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>46.5</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>46.7599983215332</v>
       </c>
-      <c r="F67">
-        <v>43.30922698974609</v>
-      </c>
-      <c r="G67">
+      <c r="F67" t="n">
+        <v>43.3092155456543</v>
+      </c>
+      <c r="G67" t="n">
         <v>1527800</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>0.06224438517211062</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.06364659594236331</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>0.0603174589444273</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>0.0603174589444273</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>48.43999862670898</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>48.68999862670898</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>48.22999954223633</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>48.5</v>
       </c>
-      <c r="F68">
-        <v>44.92082214355469</v>
-      </c>
-      <c r="G68">
+      <c r="F68" t="n">
+        <v>44.92081069946289</v>
+      </c>
+      <c r="G68" t="n">
         <v>1157400</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>0.03721132893337842</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.06331723880766511</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>0.1070531495022564</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>0.1070531495022564</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>47.18999862670898</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>47.25</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>47.02999877929688</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>47.06999969482422</v>
       </c>
-      <c r="F69">
-        <v>43.59635162353516</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>43.59634780883789</v>
+      </c>
+      <c r="G69" t="n">
         <v>997300</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>-0.02948454237475839</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.06294586811506291</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>-0.004862569681737261</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>-0.004862569681737261</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>46.86999893188477</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>46.86999893188477</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>46.5099983215332</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>46.61999893188477</v>
       </c>
-      <c r="F70">
-        <v>43.17955017089844</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>43.17955780029297</v>
+      </c>
+      <c r="G70" t="n">
         <v>1347300</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>-0.00956024571610381</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.06248633015876191</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>-0.00278077151048628</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>-0.00278077151048628</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>44</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>44.11999893188477</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>43.63000106811523</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>43.72999954223633</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>40.89492034912109</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>809900</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>-0.0619905503187792</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.06247796692142248</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>-0.01994619925937424</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>-0.01994619925937424</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>46.81000137329102</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>47.13000106811523</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>46.81000137329102</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>47.0099983215332</v>
       </c>
-      <c r="F72">
-        <v>43.96227264404297</v>
-      </c>
-      <c r="G72">
+      <c r="F72" t="n">
+        <v>43.9622688293457</v>
+      </c>
+      <c r="G72" t="n">
         <v>878900</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>0.07500568976976352</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.06267714100972019</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>0.1967922551543089</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>0.1967922551543089</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>48.72999954223633</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>48.86000061035156</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>48.61999893188477</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>48.70999908447266</v>
       </c>
-      <c r="F73">
-        <v>45.55205535888672</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>45.55205917358398</v>
+      </c>
+      <c r="G73" t="n">
         <v>1112300</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>0.03616253613352627</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.06237117231877174</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>0.2701434425699543</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>0.2701434425699543</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>49.9900016784668</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>50.04999923706055</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>49.86000061035156</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>49.93000030517578</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>46.69296646118164</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="n">
         <v>1875800</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>0.02504621727845668</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.06199489015802175</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>0.1745472189276474</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>0.1745472189276474</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>51.11000061035156</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>51.16999816894531</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>50.93000030517578</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>51.15999984741211</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>47.84322357177734</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="n">
         <v>1423600</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>0.02463447896492044</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.06162295878824638</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>0.2103146272385625</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>0.2103146272385625</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>54.11000061035156</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>54.11000061035156</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>53.65000152587891</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>53.77000045776367</v>
       </c>
-      <c r="F76">
-        <v>50.28401184082031</v>
-      </c>
-      <c r="G76">
+      <c r="F76" t="n">
+        <v>50.28400802612305</v>
+      </c>
+      <c r="G76" t="n">
         <v>1335200</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>0.05101643115981336</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.06146729056331646</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>0.2726627327281343</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>0.2726627327281343</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>54.84999847412109</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>54.93999862670898</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>54.59000015258789</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>54.68999862670898</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>51.32373428344727</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>1700300</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>0.01710987839153866</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.06107426984620492</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>0.2901627604190102</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>0.2901627604190102</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>59.75</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>59.75</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>59.34000015258789</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>59.40999984741211</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>55.75321197509766</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="n">
         <v>1030100</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>0.08630465056179415</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.06142141552029823</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>0.3496137944027247</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>0.3496137944027247</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>61.95000076293945</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>62.09999847412109</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>61.79999923706055</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>62</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>58.18379211425781</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>1177100</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>0.04359535699781203</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.06118538702050849</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>0.3259196369869992</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>0.3259196369869992</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>62.45000076293945</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>63.27999877929688</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>62.45000076293945</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>63.09000015258789</v>
       </c>
-      <c r="F80">
-        <v>59.20669937133789</v>
-      </c>
-      <c r="G80">
+      <c r="F80" t="n">
+        <v>59.20669555664062</v>
+      </c>
+      <c r="G80" t="n">
         <v>1816600</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>0.01758064762238543</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.06080568826374485</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>0.3008247454141832</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>0.3008247454141832</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>64.95999908447266</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>65.30999755859375</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>64.87999725341797</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>65.30000305175781</v>
       </c>
-      <c r="F81">
-        <v>61.28067779541016</v>
-      </c>
-      <c r="G81">
+      <c r="F81" t="n">
+        <v>61.28067016601562</v>
+      </c>
+      <c r="G81" t="n">
         <v>844300</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>0.03502936905729692</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.06051310218409919</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>0.3872955911435485</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>0.3872955911435485</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>66.76999664306641</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>66.76999664306641</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>66.12000274658203</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>66.23999786376953</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>62.16280364990234</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>2728000</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>0.01439501941932009</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.06013855795291786</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>0.4208494075804468</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>0.4208494075804468</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>66.73999786376953</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>66.75</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>66.44999694824219</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>66.54000091552734</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>63.2520637512207</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="n">
         <v>1298000</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>0.004529031724530119</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>0.05976152199469819</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>0.5216099156657921</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>0.5216099156657921</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>75.16999816894531</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>75.26999664306641</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>74.34999847412109</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>74.80999755859375</v>
       </c>
-      <c r="F84">
-        <v>71.11341857910156</v>
-      </c>
-      <c r="G84">
+      <c r="F84" t="n">
+        <v>71.11342620849609</v>
+      </c>
+      <c r="G84" t="n">
         <v>3753000</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>0.1242860915130612</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>0.060838021124817</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>0.5913635445574266</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>0.5913635445574266</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>70.20999908447266</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>70.23999786376953</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>69.16000366210938</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>69.19999694824219</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
         <v>65.78062438964844</v>
       </c>
-      <c r="G85">
+      <c r="G85" t="n">
         <v>2697500</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>-0.07498998520829547</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>0.06112107673778587</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>0.4206528074089237</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>0.4206528074089237</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>67.66000366210938</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>68.91999816894531</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>67.54000091552734</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>68.56999969482422</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>65.18175506591797</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>4175500</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>-0.009104006953774446</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>0.06077220653375016</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>0.3733226372064773</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>0.3733226372064773</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>67.55000305175781</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>67.69000244140625</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>66.83999633789062</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>66.84999847412109</v>
       </c>
-      <c r="F87">
-        <v>63.54673767089844</v>
-      </c>
-      <c r="G87">
+      <c r="F87" t="n">
+        <v>63.54674911499023</v>
+      </c>
+      <c r="G87" t="n">
         <v>3032400</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>-0.02508387382759392</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>0.06049844829580453</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>0.3066848841576502</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>0.3066848841576502</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>68.62999725341797</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>69.19999694824219</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>68.41999816894531</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>68.83000183105469</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>65.42890930175781</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>4541500</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>0.02961859988224358</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>0.06020096881287464</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>0.2800818531723956</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>0.2800818531723956</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>64.48000335693359</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>65.01000213623047</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>64.41999816894531</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>64.59999847412109</v>
       </c>
-      <c r="F89">
-        <v>61.6876335144043</v>
-      </c>
-      <c r="G89">
+      <c r="F89" t="n">
+        <v>61.68763732910156</v>
+      </c>
+      <c r="G89" t="n">
         <v>5055900</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>-0.06145580770600967</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>0.06027383897644048</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>0.1812031467591289</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>0.1812031467591289</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>63.52000045776367</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>64.04000091552734</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>63.13000106811523</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>63.81999969482422</v>
       </c>
-      <c r="F90">
-        <v>60.94279479980469</v>
-      </c>
-      <c r="G90">
+      <c r="F90" t="n">
+        <v>60.94279861450195</v>
+      </c>
+      <c r="G90" t="n">
         <v>4227400</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>-0.01207428479443917</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>0.05995196998825191</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>0.0742299252438765</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>0.0742299252438765</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>60.27999877929688</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>60.97999954223633</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>60.22999954223633</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>60.7400016784668</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>58.00165557861328</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="n">
         <v>5008700</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>-0.04826070246138237</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>0.05986869479211668</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>-0.02032255357311619</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>-0.02032255357311619</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>59.88000106811523</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>60.22000122070312</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>59.65999984741211</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>59.88999938964844</v>
       </c>
-      <c r="F92">
-        <v>57.18997573852539</v>
-      </c>
-      <c r="G92">
+      <c r="F92" t="n">
+        <v>57.18997192382812</v>
+      </c>
+      <c r="G92" t="n">
         <v>4219800</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>-0.01399411039396958</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>0.05956016175063559</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>-0.05072120391821222</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>-0.05072120391821222</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>52.90999984741211</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>53.61999893188477</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>52.84999847412109</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>53.25</v>
       </c>
-      <c r="F93">
-        <v>50.84932327270508</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>50.84933090209961</v>
+      </c>
+      <c r="G93" t="n">
         <v>5927300</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>-0.1108699191403918</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>0.06042686268901994</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>-0.1845329630720965</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>-0.1845329630720965</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>56.84000015258789</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>57.47999954223633</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>56.5099983215332</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>57.47999954223633</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>54.88861846923828</v>
       </c>
-      <c r="G94">
+      <c r="G94" t="n">
         <v>6371700</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>0.079436611121809</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>0.06063225532022923</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>-0.1322463557373474</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>-0.1322463557373474</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>53.54000091552734</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>53.54000091552734</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>52.43000030517578</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>52.61999893188477</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>50.73674392700195</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="n">
         <v>4108300</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>-0.08455115951732795</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>0.06098067932008172</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>-0.2091975021358062</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>-0.2091975021358062</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>58.81000137329102</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>59.34000015258789</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>58.72999954223633</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>59.31000137329102</v>
       </c>
-      <c r="F96">
-        <v>57.18730926513672</v>
-      </c>
-      <c r="G96">
+      <c r="F96" t="n">
+        <v>57.18731307983398</v>
+      </c>
+      <c r="G96" t="n">
         <v>12018800</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>0.1271380193311347</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>0.06200981692372411</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>-0.2071915077013953</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>-0.2071915077013953</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>60.81999969482422</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>60.93999862670898</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>60.43999862670898</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>60.70999908447266</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>58.53720474243164</v>
       </c>
-      <c r="G97">
+      <c r="G97" t="n">
         <v>7722100</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>0.0236047492626108</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>0.06171411800243338</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>-0.1226878358118944</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>-0.1226878358118944</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>62.09000015258789</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>62.54999923706055</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>61.86999893188477</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>62.43000030517578</v>
       </c>
-      <c r="F98">
-        <v>60.19565200805664</v>
-      </c>
-      <c r="G98">
+      <c r="F98" t="n">
+        <v>60.19564819335938</v>
+      </c>
+      <c r="G98" t="n">
         <v>10658500</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>0.0283314321634216</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>0.06144050308513527</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>-0.08954352365429419</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>-0.08954352365429419</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>63.5</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>63.79999923706055</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>63.18000030517578</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>63.52000045776367</v>
       </c>
-      <c r="F99">
-        <v>61.24663925170898</v>
-      </c>
-      <c r="G99">
+      <c r="F99" t="n">
+        <v>61.24663543701172</v>
+      </c>
+      <c r="G99" t="n">
         <v>5778300</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>0.01745955706006175</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>0.06113536394537516</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>-0.04981298567488412</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>-0.04981298567488412</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>55</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>55.43999862670898</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>54.93000030517578</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>55.33000183105469</v>
       </c>
-      <c r="F100">
-        <v>53.34975433349609</v>
-      </c>
-      <c r="G100">
+      <c r="F100" t="n">
+        <v>53.34975051879883</v>
+      </c>
+      <c r="G100" t="n">
         <v>4520300</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>-0.1289357457129547</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>0.06228326132235957</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>-0.1961354008552282</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>-0.1961354008552282</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>59.47999954223633</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>59.5</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>59.22000122070312</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>59.45000076293945</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>57.68910598754883</v>
       </c>
-      <c r="G101">
+      <c r="G101" t="n">
         <v>2915200</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>0.07446229523839198</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>0.06238418189644175</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>-0.07972132868152837</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>-0.07972132868152837</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>58.97999954223633</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>58.97999954223633</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>57.68000030517578</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>58.47000122070312</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>56.73813247680664</v>
       </c>
-      <c r="G102">
+      <c r="G102" t="n">
         <v>3353400</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>-0.01648443279494871</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>0.06209991309060968</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>-0.08382949701823605</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>-0.08382949701823605</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>56.5099983215332</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>56.5099983215332</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>56.06999969482422</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>56.41999816894531</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>54.74885177612305</v>
       </c>
-      <c r="G103">
+      <c r="G103" t="n">
         <v>1918900</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>-0.03506076635811572</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>0.06190536004881459</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>-0.07112287438498688</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>-0.07112287438498688</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>56.29999923706055</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>56.5099983215332</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>56</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>56.08000183105469</v>
       </c>
-      <c r="F104">
-        <v>54.41892242431641</v>
-      </c>
-      <c r="G104">
+      <c r="F104" t="n">
+        <v>54.41892623901367</v>
+      </c>
+      <c r="G104" t="n">
         <v>3181100</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>-0.006026167120256387</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>0.06160426249093154</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>-0.06361659037272061</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>-0.06361659037272061</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>58.68999862670898</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>58.7599983215332</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>58.18000030517578</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>58.47000122070312</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="n">
         <v>56.73813247680664</v>
       </c>
-      <c r="G105">
+      <c r="G105" t="n">
         <v>2635700</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>0.04261767674060524</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>0.06142782445413122</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>0.09802819193808676</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>0.09802819193808676</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>59.72999954223633</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>59.81000137329102</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>59.56999969482422</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>59.65999984741211</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>57.89287948608398</v>
       </c>
-      <c r="G106">
+      <c r="G106" t="n">
         <v>1358000</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>0.02035229351573253</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>0.06115244306703207</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>0.03792624082353924</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>0.03792624082353924</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>64.02999877929688</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>64.20999908447266</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>63.84999847412109</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>64.08999633789062</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>62.77177810668945</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>2037200</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>0.07425404796863533</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>0.06125131280914989</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>0.2179779102780575</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>0.2179779102780575</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>60.22000122070312</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>60.27000045776367</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>59.70000076293945</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>60.11000061035156</v>
       </c>
-      <c r="F108">
-        <v>58.8736457824707</v>
-      </c>
-      <c r="G108">
+      <c r="F108" t="n">
+        <v>58.87364196777344</v>
+      </c>
+      <c r="G108" t="n">
         <v>4111000</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>-0.06210010851859027</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>0.06129501445908055</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>0.01348843733834082</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>0.01348843733834082</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>60.29999923706055</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>62.13000106811523</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>59.93000030517578</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>62.13000106811523</v>
       </c>
-      <c r="F109">
-        <v>60.85210037231445</v>
-      </c>
-      <c r="G109">
+      <c r="F109" t="n">
+        <v>60.85209655761719</v>
+      </c>
+      <c r="G109" t="n">
         <v>16712200</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>0.03360506466898627</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>0.06107564474274158</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>0.02338991937171286</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>0.02338991937171286</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>56.93000030517578</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>57.81999969482422</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>56.90999984741211</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>57.25</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>56.07247161865234</v>
       </c>
-      <c r="G110">
+      <c r="G110" t="n">
         <v>3751800</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>-0.07854500216031102</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>0.0613007540645084</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>-0.08297293416393481</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>-0.08297293416393481</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>61.13000106811523</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>61.36000061035156</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>59.59999847412109</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>59.97999954223633</v>
       </c>
-      <c r="F111">
-        <v>58.74631500244141</v>
-      </c>
-      <c r="G111">
+      <c r="F111" t="n">
+        <v>58.74631881713867</v>
+      </c>
+      <c r="G111" t="n">
         <v>4178200</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>0.04768558152377866</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>0.06116761132190959</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>-0.05573049260100671</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>-0.05573049260100671</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>59.93000030517578</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>61.11000061035156</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>59.47000122070312</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>61</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>59.74533843994141</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="n">
         <v>5976900</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>0.01700567631791028</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>0.06090059450787661</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>0.1024760162896461</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>0.1024760162896461</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>65.75</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>65.81999969482422</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>65.19000244140625</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>65.44999694824219</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>64.34294128417969</v>
       </c>
-      <c r="G113">
+      <c r="G113" t="n">
         <v>2358700</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>0.07295076964331448</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>0.06098221629108946</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>0.1009250817208243</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>0.1009250817208243</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>71.81999969482422</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>71.87000274658203</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>70.87999725341797</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>71.51000213623047</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>70.30043792724609</v>
       </c>
-      <c r="G114">
+      <c r="G114" t="n">
         <v>3233100</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>0.09258984676165127</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>0.06128185811371538</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>0.2230203633194063</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="n">
         <v>0.2230203633194063</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>76.09999847412109</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>76.09999847412109</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>75.25</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>75.65000152587891</v>
       </c>
-      <c r="F115">
-        <v>74.37040710449219</v>
-      </c>
-      <c r="G115">
+      <c r="F115" t="n">
+        <v>74.37041473388672</v>
+      </c>
+      <c r="G115" t="n">
         <v>3369200</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>0.05789399057437472</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="n">
         <v>0.06121216312978287</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="n">
         <v>0.3408366533325797</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="n">
         <v>0.3408366533325797</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>73.23999786376953</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>74.37999725341797</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>73.18000030517578</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>74.16999816894531</v>
       </c>
-      <c r="F116">
-        <v>72.91543579101562</v>
-      </c>
-      <c r="G116">
+      <c r="F116" t="n">
+        <v>72.91544342041016</v>
+      </c>
+      <c r="G116" t="n">
         <v>3346000</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>-0.01956382454833527</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="n">
         <v>0.06098490308459954</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="n">
         <v>0.32257481717615</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="n">
         <v>0.32257481717615</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>78.29000091552734</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>78.40000152587891</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>77.30999755859375</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>77.72000122070312</v>
       </c>
-      <c r="F117">
-        <v>76.40540313720703</v>
-      </c>
-      <c r="G117">
+      <c r="F117" t="n">
+        <v>76.4053955078125</v>
+      </c>
+      <c r="G117" t="n">
         <v>6350800</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>0.04786305971953198</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>0.0608482384111614</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>0.3292286573988292</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>0.3292286573988292</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>81.08000183105469</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>81.08000183105469</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>79.75</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>79.80999755859375</v>
       </c>
-      <c r="F118">
-        <v>78.46003723144531</v>
-      </c>
-      <c r="G118">
+      <c r="F118" t="n">
+        <v>78.46004486083984</v>
+      </c>
+      <c r="G118" t="n">
         <v>4330800</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>0.02689135750211347</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="n">
         <v>0.06061603072164681</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="n">
         <v>0.3377471968273176</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="n">
         <v>0.3377471968273176</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>81.77999877929688</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>81.83999633789062</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>80.44999694824219</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>80.97000122070312</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>80.20904541015625</v>
       </c>
-      <c r="G119">
+      <c r="G119" t="n">
         <v>2780600</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>0.01453456581373458</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="n">
         <v>0.06035989064902209</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="n">
         <v>0.2633797136423439</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="n">
         <v>0.2633797136423439</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>87.91999816894531</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>88.55999755859375</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>87.08000183105469</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>87.51999664306641</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>86.69747924804688</v>
       </c>
-      <c r="G120">
+      <c r="G120" t="n">
         <v>3139800</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>0.08089410057571444</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="n">
         <v>0.06049936298783367</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="n">
         <v>0.4559972675827018</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="n">
         <v>0.4559972675827018</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>87.37999725341797</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>87.98000335693359</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>86.31999969482422</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>87.11000061035156</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>86.29134368896484</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>6173900</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>-0.004684598359697589</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>0.06025084185944399</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>0.4020601820825644</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>0.4020601820825644</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>81.26000213623047</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>81.98000335693359</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>81.16999816894531</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>81.69999694824219</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>80.93217468261719</v>
       </c>
-      <c r="G122">
+      <c r="G122" t="n">
         <v>5859600</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>-0.06210542560214938</v>
       </c>
-      <c r="I122">
+      <c r="I122" t="n">
         <v>0.06032014333171209</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="n">
         <v>0.427074182502047</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="n">
         <v>0.427074182502047</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>82.20999908447266</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>82.54000091552734</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>81.83000183105469</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>81.98000335693359</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>81.20955657958984</v>
       </c>
-      <c r="G123">
+      <c r="G123" t="n">
         <v>2312000</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>0.003427251152393396</v>
       </c>
-      <c r="I123">
+      <c r="I123" t="n">
         <v>0.0603114100285154</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="n">
         <v>0.366788996042013</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="n">
         <v>0.366788996042013</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>81.36000061035156</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>82.09999847412109</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>81.34999847412109</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>81.83999633789062</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>81.07086181640625</v>
       </c>
-      <c r="G124">
+      <c r="G124" t="n">
         <v>1932200</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>-0.001707819142594991</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>0.06030443722332524</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>0.3416392842277152</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="n">
         <v>0.3416392842277152</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>82.51000213623047</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>82.76999664306641</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>82.31999969482422</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>82.44000244140625</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>81.84327697753906</v>
       </c>
-      <c r="G125">
+      <c r="G125" t="n">
         <v>3496700</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>0.00733145320581885</v>
       </c>
-      <c r="I125">
+      <c r="I125" t="n">
         <v>0.06011220724776455</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="n">
         <v>0.259587567385217</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="n">
         <v>0.259587567385217</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>70.44000244140625</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>71.51999664306641</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>70.30999755859375</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>71.26999664306641</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
         <v>70.75412750244141</v>
       </c>
-      <c r="G126">
+      <c r="G126" t="n">
         <v>3813100</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>-0.1354925457004791</v>
       </c>
-      <c r="I126">
+      <c r="I126" t="n">
         <v>0.06147459129555809</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="n">
         <v>-0.003356250678147599</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="n">
         <v>-0.003356250678147599</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>70.5</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>70.91000366210938</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>70.27999877929688</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>70.79000091552734</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>70.27760314941406</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>4682500</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>-0.006734891962223211</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>0.06071062564153749</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>-0.06424323215233541</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>-0.06424323215233541</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>67.29000091552734</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>68.01000213623047</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>67.26999664306641</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>67.52999877929688</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>67.04119873046875</v>
       </c>
-      <c r="G128">
+      <c r="G128" t="n">
         <v>5731900</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>-0.04605173179924915</v>
       </c>
-      <c r="I128">
+      <c r="I128" t="n">
         <v>0.05816002326724114</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="n">
         <v>-0.0895240603151124</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="n">
         <v>-0.0895240603151124</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>69.77999877929688</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>69.88999938964844</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>68.84999847412109</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>69.23999786376953</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>68.73882293701172</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>5052100</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>0.02532206597635689</v>
       </c>
-      <c r="I129">
+      <c r="I129" t="n">
         <v>0.05648566246626879</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="n">
         <v>-0.1091096657712697</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="n">
         <v>-0.1091096657712697</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>65.58999633789062</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>65.87000274658203</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>64.55000305175781</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>65.20999908447266</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>64.73799133300781</v>
       </c>
-      <c r="G130">
+      <c r="G130" t="n">
         <v>6595700</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>-0.05820333483004925</v>
       </c>
-      <c r="I130">
+      <c r="I130" t="n">
         <v>0.0567815272932371</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="n">
         <v>-0.1829344558418546</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="n">
         <v>-0.1829344558418546</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>63</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>63.52000045776367</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>62.63000106811523</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>62.77000045776367</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>62.77000045776367</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>4054200</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>-0.03741755345753373</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>0.05679488173798136</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>-0.2247746139132565</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>-0.2247746139132565</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B132">
-        <v>62.65999984741211</v>
-      </c>
-      <c r="C132">
-        <v>62.86999893188477</v>
-      </c>
-      <c r="D132">
-        <v>61.84999847412109</v>
-      </c>
-      <c r="E132">
-        <v>62.72999954223633</v>
-      </c>
-      <c r="F132">
-        <v>62.72999954223633</v>
-      </c>
-      <c r="G132">
-        <v>3358124</v>
-      </c>
-      <c r="H132">
-        <v>-0.0006372616733412162</v>
-      </c>
-      <c r="I132">
-        <v>0.05614991951072944</v>
-      </c>
-      <c r="J132">
-        <v>-0.2832495207001818</v>
-      </c>
-      <c r="K132">
-        <v>-0.2832495207001818</v>
+      <c r="B132" t="n">
+        <v>62.27000045776367</v>
+      </c>
+      <c r="C132" t="n">
+        <v>62.27000045776367</v>
+      </c>
+      <c r="D132" t="n">
+        <v>61.45999908447266</v>
+      </c>
+      <c r="E132" t="n">
+        <v>61.45999908447266</v>
+      </c>
+      <c r="F132" t="n">
+        <v>61.45999908447266</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2664700</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-0.0208698640072893</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.05619584271901317</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.2977604954085462</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-0.2977604954085462</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>